--- a/OilGas/DocsWeb/日_自行安全檢查表-113年系統.xlsx
+++ b/OilGas/DocsWeb/日_自行安全檢查表-113年系統.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\OilGas\OilGas\DocsWeb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11675AAD-6394-4BCD-B22F-55A7BAB20154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,254 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+  <si>
+    <t>xxx加油站營運設備每日自行安全檢查表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天氣xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查人xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢	查	項	目	及	結	果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改善情形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備	註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. □營業室門窗完好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業站屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. □衛生盥洗設備(廁所)整潔完好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. □站屋、油泵島之地面無油漬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. □排水溝無油漬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. □油品儲藏室無其他非油品類可燃物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. □油品儲藏室防火門關閉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電氣設備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儲油設備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油設備
+(加油機)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油氣回收設
+備(第 1 及第2 階段)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防設備
+(滅火器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>標示設備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空氣壓縮機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗車機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特別規定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. □配電盤操作面板前無堆置雜物且開關箱關閉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. □卸油口蓋上鎖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. □卸油口蓋及墊圈完好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. □卸油口盛油盤內無雜物及卸水口關閉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. □加油槍及橡皮管無滲漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. □加油機底座四周無漏油跡象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. □運轉無異狀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. □加油槍之加滿自動跳停裝置功能良好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. □第一階段油氣回收口快速接頭蓋上鎖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. □油氣回收槍及同軸皮管無滲漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. □無非防爆性電氣設備或器具置於第一種場所
+     或第二種場所範圍內使用(詳說明2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. □第一階段油氣回收口快速接頭護蓋墊圈及操
+     作良好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. □數量符合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. □放置定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. □消防設備前無堆置雜物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. □「熄火加油」及「嚴禁煙火」標誌完好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. □運轉無異狀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. □各部接頭無漏氣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. □壓力計壓力指示正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. □下班前排除儲氣桶內空氣及積水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. □下班前排除空壓機儲氣桶內空氣及積水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. □每日盤查各儲油槽油品存量，並作成紀錄(詳說明3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">說明：
+1.檢查結果良好或正常在□打v；不良打×，並於「改善情形」欄內註明及追蹤。
+2.第一種場所：在加油機內部自其基礎向上至1.22公尺範圍內，及離加油機1.22公尺之四周自該基礎起向下至地面及向上至46公分處之空間。第二種場所：在屋外其距加油機殼6公尺或裝有管路之油槽3公尺之四周範圍內自地面向上至46公分處之空間。
+3. 每日應確實盤查油量以核對各油槽收油量、發油量、存油量是否平衡，並依環保法規要求填寫「總量進出平衡管制紀錄表」，若有異常，應即追查儲油槽及管線有無漏油。
+4. 本表應至少保存一年。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +290,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +623,631 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" style="1"/>
+    <col min="5" max="5" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="1"/>
+    <col min="7" max="7" width="14.8984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.19921875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" ht="119.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A4:B9"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A15:B18"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A22:B24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A26:B29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A30:B31"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OilGas/DocsWeb/日_自行安全檢查表-113年系統.xlsx
+++ b/OilGas/DocsWeb/日_自行安全檢查表-113年系統.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\OilGas\OilGas\DocsWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11675AAD-6394-4BCD-B22F-55A7BAB20154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61E9BE5-1F1B-4D23-B60A-91020B41A87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,35 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
-  <si>
-    <t>xxx加油站營運設備每日自行安全檢查表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天氣xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檢查人xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>設備名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,10 +197,6 @@
   </si>
   <si>
     <t>2. □下班前排除空壓機儲氣桶內空氣及積水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. □每日盤查各儲油槽油品存量，並作成紀錄(詳說明3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -237,6 +205,387 @@
 2.第一種場所：在加油機內部自其基礎向上至1.22公尺範圍內，及離加油機1.22公尺之四周自該基礎起向下至地面及向上至46公分處之空間。第二種場所：在屋外其距加油機殼6公尺或裝有管路之油槽3公尺之四周範圍內自地面向上至46公分處之空間。
 3. 每日應確實盤查油量以核對各油槽收油量、發油量、存油量是否平衡，並依環保法規要求填寫「總量進出平衡管制紀錄表」，若有異常，應即追查儲油槽及管線有無漏油。
 4. 本表應至少保存一年。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天氣weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查人CheckMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Name加油站營運設備每日自行安全檢查表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A01_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A01_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A01_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A03_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A03_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A03_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A04_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A04_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A04_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A05_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A05_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A05_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A06_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A06_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A06_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B01_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B01_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B01_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B02_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B02_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B02_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C01_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C01_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C01_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C02_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C02_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C02_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C03_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C03_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C03_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D01_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D01_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D01_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D02_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D02_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D02_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D03_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D03_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D03_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D04_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D04_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D04_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E01_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E01_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E01_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E02_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E02_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E02_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E03_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E03_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E03_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F01_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F01_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F01_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F02_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F02_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F02_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F03_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F03_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F03_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G01_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G01_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G01_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H01_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H01_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H01_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H02_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H02_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H02_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H03_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H03_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H03_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H04_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H04_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H04_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I01_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I01_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I01_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I02_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I02_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I02_Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. □每日盤查各儲油槽油品存量，並作成紀錄
+(詳說明3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J01_Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J01_Improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J01_Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +631,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -305,14 +654,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -322,27 +717,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -646,576 +1041,738 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="8" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="8" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="119.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" ht="119.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
     </row>
     <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A4:B9"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A22:B24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A26:B29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C32:G32"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A10:B11"/>
@@ -1232,19 +1789,31 @@
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A33:J33"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="A22:B24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="A26:B29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A4:B9"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
